--- a/ribbon_xnk_sunzex/hoa_don_mau/Sunzex_INV.xlsx
+++ b/ribbon_xnk_sunzex/hoa_don_mau/Sunzex_INV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="17115" windowHeight="7890"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="17115" windowHeight="7890" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="temp_1" sheetId="17" r:id="rId1"/>
@@ -12,9 +12,11 @@
     <sheet name="temp_3" sheetId="20" r:id="rId3"/>
     <sheet name="temp_4" sheetId="21" r:id="rId4"/>
     <sheet name="temp_5" sheetId="22" r:id="rId5"/>
+    <sheet name="temp_6" sheetId="23" r:id="rId6"/>
+    <sheet name="temp_7" sheetId="24" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">temp_1!$A$1:$I$35</definedName>
@@ -22,13 +24,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">temp_3!$A$1:$I$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">temp_4!$A$1:$I$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">temp_5!$A$1:$I$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">temp_6!$A$1:$I$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">temp_7!$A$1:$I$57</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="55">
   <si>
     <t>SUNZEX COMPANY LTD</t>
   </si>
@@ -722,90 +726,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="27" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -813,9 +733,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -852,36 +769,9 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -947,12 +837,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="2" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -965,24 +849,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="7" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -995,9 +867,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="27" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="7" fontId="27" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1008,24 +877,120 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="27" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="27" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="7" fontId="27" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="27" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="27" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="5" fontId="27" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="7" fontId="27" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1035,11 +1000,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="19" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="2" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1369,7 +1373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -1381,51 +1385,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
     </row>
     <row r="2" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
     </row>
     <row r="3" spans="1:9" ht="8.25" customHeight="1" thickBot="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickTop="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1476,12 +1480,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="34.5" customHeight="1">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="137"/>
       <c r="E8" s="15"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1504,12 +1508,12 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="140"/>
       <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1521,10 +1525,10 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
+      <c r="A11" s="141"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="143"/>
       <c r="E11" s="16" t="s">
         <v>12</v>
       </c>
@@ -1640,10 +1644,10 @@
         <v>MOBILE - AL</v>
       </c>
       <c r="B19" s="40"/>
-      <c r="C19" s="79">
+      <c r="C19" s="144">
         <v>44067</v>
       </c>
-      <c r="D19" s="80"/>
+      <c r="D19" s="145"/>
       <c r="E19" s="41"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1657,14 +1661,14 @@
       <c r="B20" s="43"/>
       <c r="C20" s="44"/>
       <c r="D20" s="45"/>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="82"/>
-      <c r="G20" s="81" t="s">
+      <c r="F20" s="147"/>
+      <c r="G20" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="83"/>
+      <c r="H20" s="148"/>
       <c r="I20" s="46" t="s">
         <v>26</v>
       </c>
@@ -1677,12 +1681,12 @@
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
       <c r="I21" s="48"/>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1">
@@ -1696,10 +1700,10 @@
         <v>6720</v>
       </c>
       <c r="F22" s="52"/>
-      <c r="G22" s="85">
+      <c r="G22" s="127">
         <v>0.03</v>
       </c>
-      <c r="H22" s="85"/>
+      <c r="H22" s="127"/>
       <c r="I22" s="53">
         <f>+E22*G22</f>
         <v>201.6</v>
@@ -1734,10 +1738,10 @@
     <row r="25" spans="1:14">
       <c r="A25" s="56"/>
       <c r="B25" s="56"/>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="63"/>
+      <c r="D25" s="128"/>
       <c r="E25" s="57">
         <f>SUM(E22:E24)</f>
         <v>6720</v>
@@ -1745,26 +1749,26 @@
       <c r="F25" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
       <c r="I25" s="59">
         <f>SUM(I22:I24)</f>
         <v>201.6</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="86" t="str">
+      <c r="A26" s="122" t="str">
         <f>[1]!usd(I25,TRUE)</f>
         <v>Two hundred one dollars and sixty cents</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="42" t="s">
@@ -1773,14 +1777,14 @@
       <c r="B27" s="6"/>
       <c r="C27" s="60"/>
       <c r="D27" s="61"/>
-      <c r="E27" s="88" t="s">
+      <c r="E27" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="89"/>
-      <c r="G27" s="88" t="s">
+      <c r="F27" s="125"/>
+      <c r="G27" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="90"/>
+      <c r="H27" s="126"/>
       <c r="I27" s="62" t="s">
         <v>26</v>
       </c>
@@ -1809,10 +1813,10 @@
         <v>6720</v>
       </c>
       <c r="F29" s="52"/>
-      <c r="G29" s="85">
+      <c r="G29" s="127">
         <v>0.15</v>
       </c>
-      <c r="H29" s="85"/>
+      <c r="H29" s="127"/>
       <c r="I29" s="53">
         <f>+E29*G29</f>
         <v>1008</v>
@@ -1847,10 +1851,10 @@
     <row r="32" spans="1:14">
       <c r="A32" s="56"/>
       <c r="B32" s="56"/>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="63"/>
+      <c r="D32" s="128"/>
       <c r="E32" s="57">
         <f>SUM(E29:E31)</f>
         <v>6720</v>
@@ -1858,26 +1862,26 @@
       <c r="F32" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
       <c r="I32" s="59">
         <f>SUM(I29:I31)</f>
         <v>1008</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="86" t="str">
+      <c r="A33" s="122" t="str">
         <f>[1]!usd(I32,TRUE)</f>
         <v>One thousand, eight dollars</v>
       </c>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
     </row>
     <row r="34" spans="1:9" ht="16.5">
       <c r="A34" s="12"/>
@@ -1897,11 +1901,11 @@
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="87" t="s">
+      <c r="G35" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
     </row>
     <row r="36" spans="1:9" ht="16.5">
       <c r="A36" s="12"/>
@@ -1916,14 +1920,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="G32:H32"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A1:I1"/>
@@ -1937,6 +1933,14 @@
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="G32:H32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1"/>
@@ -1962,51 +1966,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
     </row>
     <row r="2" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
     </row>
     <row r="3" spans="1:9" ht="8.25" customHeight="1" thickBot="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickTop="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2057,12 +2061,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="34.5" customHeight="1">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="137"/>
       <c r="E8" s="15"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2085,12 +2089,12 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="140"/>
       <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
@@ -2102,10 +2106,10 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
+      <c r="A11" s="141"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="143"/>
       <c r="E11" s="16" t="s">
         <v>12</v>
       </c>
@@ -2221,10 +2225,10 @@
         <v>SAVANNAH - GA</v>
       </c>
       <c r="B19" s="40"/>
-      <c r="C19" s="79">
+      <c r="C19" s="144">
         <v>44060</v>
       </c>
-      <c r="D19" s="80"/>
+      <c r="D19" s="145"/>
       <c r="E19" s="41"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -2238,14 +2242,14 @@
       <c r="B20" s="43"/>
       <c r="C20" s="44"/>
       <c r="D20" s="45"/>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="82"/>
-      <c r="G20" s="81" t="s">
+      <c r="F20" s="147"/>
+      <c r="G20" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="83"/>
+      <c r="H20" s="148"/>
       <c r="I20" s="46" t="s">
         <v>26</v>
       </c>
@@ -2258,12 +2262,12 @@
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
       <c r="I21" s="48"/>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1">
@@ -2277,10 +2281,10 @@
         <v>2912</v>
       </c>
       <c r="F22" s="52"/>
-      <c r="G22" s="85">
+      <c r="G22" s="127">
         <v>0.03</v>
       </c>
-      <c r="H22" s="85"/>
+      <c r="H22" s="127"/>
       <c r="I22" s="53">
         <f>+E22*G22</f>
         <v>87.36</v>
@@ -2323,10 +2327,10 @@
         <v>6720</v>
       </c>
       <c r="F25" s="52"/>
-      <c r="G25" s="85">
+      <c r="G25" s="127">
         <v>0.03</v>
       </c>
-      <c r="H25" s="85"/>
+      <c r="H25" s="127"/>
       <c r="I25" s="53">
         <f>+E25*G25</f>
         <v>201.6</v>
@@ -2361,10 +2365,10 @@
     <row r="28" spans="1:14">
       <c r="A28" s="56"/>
       <c r="B28" s="56"/>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="63"/>
+      <c r="D28" s="128"/>
       <c r="E28" s="57">
         <f>SUM(E22:E27)</f>
         <v>9632</v>
@@ -2372,26 +2376,26 @@
       <c r="F28" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="129"/>
       <c r="I28" s="59">
         <f>SUM(I22:I27)</f>
         <v>288.95999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="86" t="str">
+      <c r="A29" s="122" t="str">
         <f>[1]!usd(I28,TRUE)</f>
         <v>Two hundred eighty eight dollars and ninety six cents</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="42" t="s">
@@ -2400,14 +2404,14 @@
       <c r="B30" s="6"/>
       <c r="C30" s="60"/>
       <c r="D30" s="61"/>
-      <c r="E30" s="88" t="s">
+      <c r="E30" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="89"/>
-      <c r="G30" s="88" t="s">
+      <c r="F30" s="125"/>
+      <c r="G30" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="90"/>
+      <c r="H30" s="126"/>
       <c r="I30" s="62" t="s">
         <v>26</v>
       </c>
@@ -2436,10 +2440,10 @@
         <v>2912</v>
       </c>
       <c r="F32" s="52"/>
-      <c r="G32" s="85">
+      <c r="G32" s="127">
         <v>0.3</v>
       </c>
-      <c r="H32" s="85"/>
+      <c r="H32" s="127"/>
       <c r="I32" s="53">
         <f>+E32*G32</f>
         <v>873.6</v>
@@ -2482,10 +2486,10 @@
         <v>6720</v>
       </c>
       <c r="F35" s="52"/>
-      <c r="G35" s="85">
+      <c r="G35" s="127">
         <v>0.15</v>
       </c>
-      <c r="H35" s="85"/>
+      <c r="H35" s="127"/>
       <c r="I35" s="53">
         <f>+E35*G35</f>
         <v>1008</v>
@@ -2520,10 +2524,10 @@
     <row r="38" spans="1:9">
       <c r="A38" s="56"/>
       <c r="B38" s="56"/>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="63"/>
+      <c r="D38" s="128"/>
       <c r="E38" s="57">
         <f>SUM(E32:E37)</f>
         <v>9632</v>
@@ -2531,26 +2535,26 @@
       <c r="F38" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
       <c r="I38" s="59">
         <f>SUM(I32:I37)</f>
         <v>1881.6</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="86" t="str">
+      <c r="A39" s="122" t="str">
         <f>[1]!usd(I38,TRUE)</f>
         <v>One thousand, eight hundred eighty one dollars and sixty cents</v>
       </c>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
+      <c r="B39" s="122"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="122"/>
     </row>
     <row r="40" spans="1:9" ht="16.5">
       <c r="A40" s="12"/>
@@ -2570,11 +2574,11 @@
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="87" t="s">
+      <c r="G41" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
     </row>
     <row r="42" spans="1:9" ht="16.5">
       <c r="A42" s="12"/>
@@ -2589,29 +2593,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="G41:I41"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="A39:I39"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1"/>
@@ -2637,51 +2641,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
     </row>
     <row r="2" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
     </row>
     <row r="3" spans="1:9" ht="8.25" customHeight="1" thickBot="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickTop="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2732,12 +2736,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="34.5" customHeight="1">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="137"/>
       <c r="E8" s="15"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2760,12 +2764,12 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="140"/>
       <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
@@ -2777,10 +2781,10 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
+      <c r="A11" s="141"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="143"/>
       <c r="E11" s="16" t="s">
         <v>12</v>
       </c>
@@ -2896,10 +2900,10 @@
         <v>LONG BEACH - CA</v>
       </c>
       <c r="B19" s="40"/>
-      <c r="C19" s="79">
+      <c r="C19" s="144">
         <v>44074</v>
       </c>
-      <c r="D19" s="80"/>
+      <c r="D19" s="145"/>
       <c r="E19" s="41"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -2913,14 +2917,14 @@
       <c r="B20" s="43"/>
       <c r="C20" s="44"/>
       <c r="D20" s="45"/>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="82"/>
-      <c r="G20" s="81" t="s">
+      <c r="F20" s="147"/>
+      <c r="G20" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="83"/>
+      <c r="H20" s="148"/>
       <c r="I20" s="46" t="s">
         <v>26</v>
       </c>
@@ -2933,12 +2937,12 @@
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
       <c r="I21" s="48"/>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1">
@@ -2952,10 +2956,10 @@
         <v>4864</v>
       </c>
       <c r="F22" s="52"/>
-      <c r="G22" s="85">
+      <c r="G22" s="127">
         <v>0.03</v>
       </c>
-      <c r="H22" s="85"/>
+      <c r="H22" s="127"/>
       <c r="I22" s="53">
         <f>+E22*G22</f>
         <v>145.91999999999999</v>
@@ -2998,10 +3002,10 @@
         <v>2520</v>
       </c>
       <c r="F25" s="52"/>
-      <c r="G25" s="85">
+      <c r="G25" s="127">
         <v>0.03</v>
       </c>
-      <c r="H25" s="85"/>
+      <c r="H25" s="127"/>
       <c r="I25" s="53">
         <f>+E25*G25</f>
         <v>75.599999999999994</v>
@@ -3044,10 +3048,10 @@
         <v>3024</v>
       </c>
       <c r="F28" s="52"/>
-      <c r="G28" s="85">
+      <c r="G28" s="127">
         <v>0.03</v>
       </c>
-      <c r="H28" s="85"/>
+      <c r="H28" s="127"/>
       <c r="I28" s="53">
         <f>+E28*G28</f>
         <v>90.72</v>
@@ -3082,10 +3086,10 @@
     <row r="31" spans="1:14">
       <c r="A31" s="56"/>
       <c r="B31" s="56"/>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="63"/>
+      <c r="D31" s="128"/>
       <c r="E31" s="57">
         <f>SUM(E22:E30)</f>
         <v>10408</v>
@@ -3093,26 +3097,26 @@
       <c r="F31" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
       <c r="I31" s="59">
         <f>SUM(I22:I30)</f>
         <v>312.24</v>
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="86" t="str">
+      <c r="A32" s="122" t="str">
         <f>[1]!usd(I31,TRUE)</f>
         <v>Three hundred twelve dollars and twenty four cents</v>
       </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="42" t="s">
@@ -3121,14 +3125,14 @@
       <c r="B33" s="6"/>
       <c r="C33" s="60"/>
       <c r="D33" s="61"/>
-      <c r="E33" s="88" t="s">
+      <c r="E33" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="89"/>
-      <c r="G33" s="88" t="s">
+      <c r="F33" s="125"/>
+      <c r="G33" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="90"/>
+      <c r="H33" s="126"/>
       <c r="I33" s="62" t="s">
         <v>26</v>
       </c>
@@ -3157,10 +3161,10 @@
         <v>4864</v>
       </c>
       <c r="F35" s="52"/>
-      <c r="G35" s="85">
+      <c r="G35" s="127">
         <v>0.15</v>
       </c>
-      <c r="H35" s="85"/>
+      <c r="H35" s="127"/>
       <c r="I35" s="53">
         <f>+E35*G35</f>
         <v>729.6</v>
@@ -3203,10 +3207,10 @@
         <v>2520</v>
       </c>
       <c r="F38" s="52"/>
-      <c r="G38" s="85">
+      <c r="G38" s="127">
         <v>0.15</v>
       </c>
-      <c r="H38" s="85"/>
+      <c r="H38" s="127"/>
       <c r="I38" s="53">
         <f>+E38*G38</f>
         <v>378</v>
@@ -3249,10 +3253,10 @@
         <v>3024</v>
       </c>
       <c r="F41" s="52"/>
-      <c r="G41" s="85">
+      <c r="G41" s="127">
         <v>0.3</v>
       </c>
-      <c r="H41" s="85"/>
+      <c r="H41" s="127"/>
       <c r="I41" s="53">
         <f>+E41*G41</f>
         <v>907.19999999999993</v>
@@ -3287,10 +3291,10 @@
     <row r="44" spans="1:9">
       <c r="A44" s="56"/>
       <c r="B44" s="56"/>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="63"/>
+      <c r="D44" s="128"/>
       <c r="E44" s="57">
         <f>SUM(E35:E43)</f>
         <v>10408</v>
@@ -3298,26 +3302,26 @@
       <c r="F44" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
+      <c r="G44" s="129"/>
+      <c r="H44" s="129"/>
       <c r="I44" s="59">
         <f>SUM(I35:I43)</f>
         <v>2014.7999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="86" t="str">
+      <c r="A45" s="122" t="str">
         <f>[1]!usd(I44,TRUE)</f>
         <v>Two thousand, fourteen dollars and eighty cents</v>
       </c>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="122"/>
     </row>
     <row r="46" spans="1:9" ht="16.5">
       <c r="A46" s="12"/>
@@ -3337,11 +3341,11 @@
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="87" t="s">
+      <c r="G47" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
+      <c r="H47" s="123"/>
+      <c r="I47" s="123"/>
     </row>
     <row r="48" spans="1:9" ht="16.5">
       <c r="A48" s="12"/>
@@ -3356,19 +3360,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -3381,6 +3372,19 @@
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="A45:I45"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1"/>
@@ -3400,722 +3404,741 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="91"/>
-    <col min="4" max="4" width="20" style="91" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="91" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="91"/>
-    <col min="9" max="9" width="16.28515625" style="91" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="91"/>
+    <col min="1" max="3" width="9.140625" style="63"/>
+    <col min="4" max="4" width="20" style="63" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="63"/>
+    <col min="9" max="9" width="16.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
     </row>
     <row r="3" spans="1:9" ht="4.5" customHeight="1" thickBot="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickTop="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="94" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:9" ht="4.5" customHeight="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="99" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:9" ht="16.5">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="102" t="s">
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="105" t="s">
+      <c r="F7" s="74"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="106">
+      <c r="I7" s="77">
         <v>43929</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="99" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="95" t="s">
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95" t="s">
+      <c r="F10" s="66"/>
+      <c r="G10" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A11" s="114"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="117" t="s">
+      <c r="A11" s="171"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="110"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="78"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="110"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="78"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="110"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="78"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="110"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="78"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="127" t="s">
+      <c r="A16" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="128"/>
-      <c r="C16" s="129" t="s">
+      <c r="B16" s="90"/>
+      <c r="C16" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="130"/>
-      <c r="E16" s="93" t="s">
+      <c r="D16" s="92"/>
+      <c r="E16" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93" t="s">
+      <c r="F16" s="65"/>
+      <c r="G16" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="132"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:14" ht="16.5">
-      <c r="A18" s="135" t="s">
+      <c r="A18" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="136"/>
-      <c r="C18" s="137" t="s">
+      <c r="B18" s="98"/>
+      <c r="C18" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="130"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="39" t="str">
         <f>+C17</f>
         <v>HOUSTON - TX</v>
       </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="139">
+      <c r="B19" s="100"/>
+      <c r="C19" s="159">
         <v>44058</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="142" t="s">
+      <c r="A20" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146" t="s">
+      <c r="B20" s="103"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="147"/>
-      <c r="G20" s="146" t="s">
+      <c r="F20" s="162"/>
+      <c r="G20" s="161" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="148"/>
-      <c r="I20" s="149" t="s">
+      <c r="H20" s="163"/>
+      <c r="I20" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="91" t="s">
+      <c r="N20" s="63" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="150"/>
-      <c r="B21" s="150"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="151" t="s">
+      <c r="A21" s="107"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="108"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1">
-      <c r="A22" s="153" t="s">
+      <c r="A22" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="154"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="154"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
       <c r="E22" s="51">
         <v>32224</v>
       </c>
-      <c r="F22" s="155"/>
-      <c r="G22" s="156">
+      <c r="F22" s="111"/>
+      <c r="G22" s="153">
         <v>0.03</v>
       </c>
-      <c r="H22" s="156"/>
-      <c r="I22" s="157">
+      <c r="H22" s="153"/>
+      <c r="I22" s="112">
         <f>+E22*G22</f>
         <v>966.71999999999991</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1">
-      <c r="A23" s="150" t="s">
+      <c r="A23" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="154"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="159"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="114"/>
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1">
-      <c r="A24" s="153" t="s">
+      <c r="A24" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="154"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="154"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
       <c r="E24" s="51">
         <v>14700</v>
       </c>
-      <c r="F24" s="155"/>
-      <c r="G24" s="156">
+      <c r="F24" s="111"/>
+      <c r="G24" s="153">
         <v>0.03</v>
       </c>
-      <c r="H24" s="156"/>
-      <c r="I24" s="157">
+      <c r="H24" s="153"/>
+      <c r="I24" s="112">
         <f>+E24*G24</f>
         <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1">
-      <c r="A25" s="150" t="s">
+      <c r="A25" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="154"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="159"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="114"/>
     </row>
     <row r="26" spans="1:14" ht="18" customHeight="1">
-      <c r="A26" s="153" t="s">
+      <c r="A26" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
       <c r="E26" s="51">
         <v>57570</v>
       </c>
-      <c r="F26" s="155"/>
-      <c r="G26" s="156">
+      <c r="F26" s="111"/>
+      <c r="G26" s="153">
         <v>0.03</v>
       </c>
-      <c r="H26" s="156"/>
-      <c r="I26" s="157">
+      <c r="H26" s="153"/>
+      <c r="I26" s="112">
         <f>+E26*G26</f>
         <v>1727.1</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1">
-      <c r="A27" s="150" t="s">
+      <c r="A27" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="154"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="159"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="114"/>
     </row>
     <row r="28" spans="1:14" ht="18" customHeight="1">
-      <c r="A28" s="153" t="s">
+      <c r="A28" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="154"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
       <c r="E28" s="51">
         <v>57570</v>
       </c>
-      <c r="F28" s="155"/>
-      <c r="G28" s="156">
+      <c r="F28" s="111"/>
+      <c r="G28" s="153">
         <v>0.03</v>
       </c>
-      <c r="H28" s="156"/>
-      <c r="I28" s="157">
+      <c r="H28" s="153"/>
+      <c r="I28" s="112">
         <f>+E28*G28</f>
         <v>1727.1</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="18" customHeight="1">
-      <c r="A29" s="150" t="s">
+      <c r="A29" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="159"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="114"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="160"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="161" t="s">
+      <c r="A30" s="115"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="161"/>
-      <c r="E30" s="162">
+      <c r="D30" s="154"/>
+      <c r="E30" s="116">
         <f>SUM(E22:E28)</f>
         <v>162064</v>
       </c>
-      <c r="F30" s="163" t="s">
+      <c r="F30" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="164"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="165">
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="118">
         <f>SUM(I22:I28)</f>
         <v>4861.92</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="166" t="str">
+      <c r="A31" s="150" t="str">
         <f>[1]!usd(I30,TRUE)</f>
         <v>Four thousand, eight hundred sixty one dollars and ninety two cents</v>
       </c>
-      <c r="B31" s="166"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="166"/>
-      <c r="H31" s="166"/>
-      <c r="I31" s="166"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="142" t="s">
+      <c r="A32" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="98"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="169" t="s">
+      <c r="B32" s="69"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="170"/>
-      <c r="G32" s="169" t="s">
+      <c r="F32" s="157"/>
+      <c r="G32" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="171"/>
-      <c r="I32" s="172" t="s">
+      <c r="H32" s="158"/>
+      <c r="I32" s="121" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="21" customHeight="1">
-      <c r="A33" s="150"/>
-      <c r="B33" s="150"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="151" t="s">
+      <c r="A33" s="107"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="108"/>
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1">
-      <c r="A34" s="153" t="s">
+      <c r="A34" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
       <c r="E34" s="51">
         <v>32224</v>
       </c>
-      <c r="F34" s="155"/>
-      <c r="G34" s="156">
+      <c r="F34" s="111"/>
+      <c r="G34" s="153">
         <v>0.15</v>
       </c>
-      <c r="H34" s="156"/>
-      <c r="I34" s="157">
+      <c r="H34" s="153"/>
+      <c r="I34" s="112">
         <f>+E34*G34</f>
         <v>4833.5999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1">
-      <c r="A35" s="150" t="s">
+      <c r="A35" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="154"/>
-      <c r="C35" s="154"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="159"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="114"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1">
-      <c r="A36" s="153" t="s">
+      <c r="A36" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="154"/>
-      <c r="C36" s="154"/>
-      <c r="D36" s="154"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
       <c r="E36" s="51">
         <v>14700</v>
       </c>
-      <c r="F36" s="155"/>
-      <c r="G36" s="156">
+      <c r="F36" s="111"/>
+      <c r="G36" s="153">
         <v>0.3</v>
       </c>
-      <c r="H36" s="156"/>
-      <c r="I36" s="157">
+      <c r="H36" s="153"/>
+      <c r="I36" s="112">
         <f>+E36*G36</f>
         <v>4410</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1">
-      <c r="A37" s="150" t="s">
+      <c r="A37" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="154"/>
-      <c r="C37" s="154"/>
-      <c r="D37" s="154"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="159"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="114"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1">
-      <c r="A38" s="153" t="s">
+      <c r="A38" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="154"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="154"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
       <c r="E38" s="51">
         <v>57570</v>
       </c>
-      <c r="F38" s="155"/>
-      <c r="G38" s="156">
+      <c r="F38" s="111"/>
+      <c r="G38" s="153">
         <v>0.15</v>
       </c>
-      <c r="H38" s="156"/>
-      <c r="I38" s="157">
+      <c r="H38" s="153"/>
+      <c r="I38" s="112">
         <f>+E38*G38</f>
         <v>8635.5</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1">
-      <c r="A39" s="150" t="s">
+      <c r="A39" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="154"/>
-      <c r="C39" s="154"/>
-      <c r="D39" s="154"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="159"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="114"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1">
-      <c r="A40" s="153" t="s">
+      <c r="A40" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="154"/>
-      <c r="C40" s="154"/>
-      <c r="D40" s="154"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
       <c r="E40" s="51">
         <v>57570</v>
       </c>
-      <c r="F40" s="155"/>
-      <c r="G40" s="156">
+      <c r="F40" s="111"/>
+      <c r="G40" s="153">
         <v>0.15</v>
       </c>
-      <c r="H40" s="156"/>
-      <c r="I40" s="157">
+      <c r="H40" s="153"/>
+      <c r="I40" s="112">
         <f>+E40*G40</f>
         <v>8635.5</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" customHeight="1">
-      <c r="A41" s="150" t="s">
+      <c r="A41" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="154"/>
-      <c r="C41" s="154"/>
-      <c r="D41" s="154"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="159"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="114"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="160"/>
-      <c r="B42" s="160"/>
-      <c r="C42" s="161" t="s">
+      <c r="A42" s="115"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="161"/>
-      <c r="E42" s="162">
+      <c r="D42" s="154"/>
+      <c r="E42" s="116">
         <f>SUM(E33:E40)</f>
         <v>162064</v>
       </c>
-      <c r="F42" s="163" t="s">
+      <c r="F42" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="164"/>
-      <c r="H42" s="164"/>
-      <c r="I42" s="165">
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="118">
         <f>SUM(I33:I40)</f>
         <v>26514.6</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="166" t="str">
+      <c r="A43" s="150" t="str">
         <f>[1]!usd(I42,TRUE)</f>
         <v>Twenty six thousand, five hundred fourteen dollars and sixty cents</v>
       </c>
-      <c r="B43" s="166"/>
-      <c r="C43" s="166"/>
-      <c r="D43" s="166"/>
-      <c r="E43" s="166"/>
-      <c r="F43" s="166"/>
-      <c r="G43" s="166"/>
-      <c r="H43" s="166"/>
-      <c r="I43" s="166"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
     </row>
     <row r="44" spans="1:9" ht="16.5">
-      <c r="A44" s="104"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="104"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
     </row>
     <row r="45" spans="1:9" ht="16.5">
-      <c r="A45" s="104"/>
-      <c r="B45" s="104"/>
-      <c r="C45" s="104"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="173" t="s">
+      <c r="A45" s="75"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="H45" s="173"/>
-      <c r="I45" s="173"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
     </row>
     <row r="46" spans="1:9" ht="16.5">
-      <c r="A46" s="104"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="104"/>
-      <c r="I46" s="104"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A31:I31"/>
     <mergeCell ref="A43:I43"/>
     <mergeCell ref="G45:I45"/>
     <mergeCell ref="E33:H33"/>
@@ -4125,13 +4148,1724 @@
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="G42:H42"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A15" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="63"/>
+    <col min="4" max="4" width="20" style="63" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="63"/>
+    <col min="9" max="9" width="16.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A1" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A2" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+    </row>
+    <row r="3" spans="1:9" ht="4.5" customHeight="1" thickBot="1">
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickTop="1">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+    </row>
+    <row r="5" spans="1:9" ht="4.5" customHeight="1">
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5">
+      <c r="A7" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="74"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="77">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="33" customHeight="1">
+      <c r="A8" s="165" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1">
+      <c r="A10" s="168" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="171"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A12" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="78"/>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A13" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="78"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A14" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="78"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1">
+      <c r="A15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="78"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A16" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="90"/>
+      <c r="C16" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="92"/>
+      <c r="E16" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="94"/>
+      <c r="C17" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="95"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+    </row>
+    <row r="18" spans="1:14" ht="16.5">
+      <c r="A18" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="92"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="39" t="str">
+        <f>+C17</f>
+        <v>HOUSTON - TX</v>
+      </c>
+      <c r="B19" s="100"/>
+      <c r="C19" s="159">
+        <v>44058</v>
+      </c>
+      <c r="D19" s="160"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="103"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="161" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="162"/>
+      <c r="G20" s="161" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="163"/>
+      <c r="I20" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="107"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="152" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="108"/>
+    </row>
+    <row r="22" spans="1:14" ht="18" customHeight="1">
+      <c r="A22" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="51">
+        <v>32224</v>
+      </c>
+      <c r="F22" s="111"/>
+      <c r="G22" s="153">
+        <v>0.03</v>
+      </c>
+      <c r="H22" s="153"/>
+      <c r="I22" s="112">
+        <f>+E22*G22</f>
+        <v>966.71999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18" customHeight="1">
+      <c r="A23" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="114"/>
+    </row>
+    <row r="24" spans="1:14" ht="18" customHeight="1">
+      <c r="A24" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="51">
+        <v>14700</v>
+      </c>
+      <c r="F24" s="111"/>
+      <c r="G24" s="153">
+        <v>0.03</v>
+      </c>
+      <c r="H24" s="153"/>
+      <c r="I24" s="112">
+        <f>+E24*G24</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="18" customHeight="1">
+      <c r="A25" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="114"/>
+    </row>
+    <row r="26" spans="1:14" ht="18" customHeight="1">
+      <c r="A26" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="51">
+        <v>57570</v>
+      </c>
+      <c r="F26" s="111"/>
+      <c r="G26" s="153">
+        <v>0.03</v>
+      </c>
+      <c r="H26" s="153"/>
+      <c r="I26" s="112">
+        <f>+E26*G26</f>
+        <v>1727.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="18" customHeight="1">
+      <c r="A27" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="114"/>
+    </row>
+    <row r="28" spans="1:14" ht="18" customHeight="1">
+      <c r="A28" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="110"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="51">
+        <v>14700</v>
+      </c>
+      <c r="F28" s="111"/>
+      <c r="G28" s="153">
+        <v>0.03</v>
+      </c>
+      <c r="H28" s="153"/>
+      <c r="I28" s="112">
+        <f>+E28*G28</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="18" customHeight="1">
+      <c r="A29" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="114"/>
+    </row>
+    <row r="30" spans="1:14" ht="18" customHeight="1">
+      <c r="A30" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="51">
+        <v>57570</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="153">
+        <v>0.03</v>
+      </c>
+      <c r="H30" s="153"/>
+      <c r="I30" s="112">
+        <f>+E30*G30</f>
+        <v>1727.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="18" customHeight="1">
+      <c r="A31" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="110"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="114"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="115"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="154" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="154"/>
+      <c r="E32" s="116">
+        <f>SUM(E22:E30)</f>
+        <v>176764</v>
+      </c>
+      <c r="F32" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="118">
+        <f>SUM(I22:I30)</f>
+        <v>5302.92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="150" t="str">
+        <f>[1]!usd(I32,TRUE)</f>
+        <v>Five thousand, three hundred two dollars and ninety two cents</v>
+      </c>
+      <c r="B33" s="150"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="69"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="156" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="157"/>
+      <c r="G34" s="156" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="158"/>
+      <c r="I34" s="121" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="21" customHeight="1">
+      <c r="A35" s="107"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="108"/>
+    </row>
+    <row r="36" spans="1:9" ht="18" customHeight="1">
+      <c r="A36" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="110"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="51">
+        <v>32224</v>
+      </c>
+      <c r="F36" s="111"/>
+      <c r="G36" s="153">
+        <v>0.15</v>
+      </c>
+      <c r="H36" s="153"/>
+      <c r="I36" s="112">
+        <f>+E36*G36</f>
+        <v>4833.5999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18" customHeight="1">
+      <c r="A37" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="110"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="114"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" customHeight="1">
+      <c r="A38" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="110"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="51">
+        <v>14700</v>
+      </c>
+      <c r="F38" s="111"/>
+      <c r="G38" s="153">
+        <v>0.3</v>
+      </c>
+      <c r="H38" s="153"/>
+      <c r="I38" s="112">
+        <f>+E38*G38</f>
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18" customHeight="1">
+      <c r="A39" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="114"/>
+    </row>
+    <row r="40" spans="1:9" ht="18" customHeight="1">
+      <c r="A40" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="110"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="51">
+        <v>57570</v>
+      </c>
+      <c r="F40" s="111"/>
+      <c r="G40" s="153">
+        <v>0.15</v>
+      </c>
+      <c r="H40" s="153"/>
+      <c r="I40" s="112">
+        <f>+E40*G40</f>
+        <v>8635.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18" customHeight="1">
+      <c r="A41" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="110"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="114"/>
+    </row>
+    <row r="42" spans="1:9" ht="18" customHeight="1">
+      <c r="A42" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="51">
+        <v>14700</v>
+      </c>
+      <c r="F42" s="111"/>
+      <c r="G42" s="153">
+        <v>0.3</v>
+      </c>
+      <c r="H42" s="153"/>
+      <c r="I42" s="112">
+        <f>+E42*G42</f>
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18" customHeight="1">
+      <c r="A43" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="110"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="114"/>
+    </row>
+    <row r="44" spans="1:9" ht="18" customHeight="1">
+      <c r="A44" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="110"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="51">
+        <v>57570</v>
+      </c>
+      <c r="F44" s="111"/>
+      <c r="G44" s="153">
+        <v>0.15</v>
+      </c>
+      <c r="H44" s="153"/>
+      <c r="I44" s="112">
+        <f>+E44*G44</f>
+        <v>8635.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18" customHeight="1">
+      <c r="A45" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="110"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="114"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="115"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="154" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="154"/>
+      <c r="E46" s="116">
+        <f>SUM(E35:E44)</f>
+        <v>176764</v>
+      </c>
+      <c r="F46" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="155"/>
+      <c r="H46" s="155"/>
+      <c r="I46" s="118">
+        <f>SUM(I35:I44)</f>
+        <v>30924.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="150" t="str">
+        <f>[1]!usd(I46,TRUE)</f>
+        <v>Thirty thousand, nine hundred twenty four dollars and sixty cents</v>
+      </c>
+      <c r="B47" s="150"/>
+      <c r="C47" s="150"/>
+      <c r="D47" s="150"/>
+      <c r="E47" s="150"/>
+      <c r="F47" s="150"/>
+      <c r="G47" s="150"/>
+      <c r="H47" s="150"/>
+      <c r="I47" s="150"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5">
+      <c r="A48" s="75"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.5">
+      <c r="A49" s="75"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="151" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5">
+      <c r="A50" s="75"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C30:D30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A47:I47"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A15" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="63"/>
+    <col min="4" max="4" width="20" style="63" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="63"/>
+    <col min="9" max="9" width="16.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A1" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A2" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+    </row>
+    <row r="3" spans="1:9" ht="4.5" customHeight="1" thickBot="1">
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickTop="1">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+    </row>
+    <row r="5" spans="1:9" ht="4.5" customHeight="1">
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5">
+      <c r="A7" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="74"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="77">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="33" customHeight="1">
+      <c r="A8" s="165" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1">
+      <c r="A10" s="168" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="171"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A12" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="78"/>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A13" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="78"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A14" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="78"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1">
+      <c r="A15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="78"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A16" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="90"/>
+      <c r="C16" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="92"/>
+      <c r="E16" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="94"/>
+      <c r="C17" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="95"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+    </row>
+    <row r="18" spans="1:14" ht="16.5">
+      <c r="A18" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="92"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="39" t="str">
+        <f>+C17</f>
+        <v>HOUSTON - TX</v>
+      </c>
+      <c r="B19" s="100"/>
+      <c r="C19" s="159">
+        <v>44058</v>
+      </c>
+      <c r="D19" s="160"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="103"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="161" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="162"/>
+      <c r="G20" s="161" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="163"/>
+      <c r="I20" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="107"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="152" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="108"/>
+    </row>
+    <row r="22" spans="1:14" ht="18" customHeight="1">
+      <c r="A22" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="51">
+        <v>32224</v>
+      </c>
+      <c r="F22" s="111"/>
+      <c r="G22" s="153">
+        <v>0.03</v>
+      </c>
+      <c r="H22" s="153"/>
+      <c r="I22" s="112">
+        <f>+E22*G22</f>
+        <v>966.71999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18" customHeight="1">
+      <c r="A23" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="114"/>
+    </row>
+    <row r="24" spans="1:14" ht="18" customHeight="1">
+      <c r="A24" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="51">
+        <v>14700</v>
+      </c>
+      <c r="F24" s="111"/>
+      <c r="G24" s="153">
+        <v>0.03</v>
+      </c>
+      <c r="H24" s="153"/>
+      <c r="I24" s="112">
+        <f>+E24*G24</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="18" customHeight="1">
+      <c r="A25" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="114"/>
+    </row>
+    <row r="26" spans="1:14" ht="18" customHeight="1">
+      <c r="A26" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="51">
+        <v>57570</v>
+      </c>
+      <c r="F26" s="111"/>
+      <c r="G26" s="153">
+        <v>0.03</v>
+      </c>
+      <c r="H26" s="153"/>
+      <c r="I26" s="112">
+        <f>+E26*G26</f>
+        <v>1727.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="18" customHeight="1">
+      <c r="A27" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="114"/>
+    </row>
+    <row r="28" spans="1:14" ht="18" customHeight="1">
+      <c r="A28" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="110"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="51">
+        <v>14700</v>
+      </c>
+      <c r="F28" s="111"/>
+      <c r="G28" s="153">
+        <v>0.03</v>
+      </c>
+      <c r="H28" s="153"/>
+      <c r="I28" s="112">
+        <f>+E28*G28</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="18" customHeight="1">
+      <c r="A29" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="114"/>
+    </row>
+    <row r="30" spans="1:14" ht="18" customHeight="1">
+      <c r="A30" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="51">
+        <v>14700</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="153">
+        <v>0.03</v>
+      </c>
+      <c r="H30" s="153"/>
+      <c r="I30" s="112">
+        <f>+E30*G30</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="18" customHeight="1">
+      <c r="A31" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="110"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="114"/>
+    </row>
+    <row r="32" spans="1:14" ht="18" customHeight="1">
+      <c r="A32" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="51">
+        <v>57570</v>
+      </c>
+      <c r="F32" s="111"/>
+      <c r="G32" s="153">
+        <v>0.03</v>
+      </c>
+      <c r="H32" s="153"/>
+      <c r="I32" s="112">
+        <f>+E32*G32</f>
+        <v>1727.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18" customHeight="1">
+      <c r="A33" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="114"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="115"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="154" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="154"/>
+      <c r="E34" s="116">
+        <f>SUM(E22:E32)</f>
+        <v>191464</v>
+      </c>
+      <c r="F34" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="118">
+        <f>SUM(I22:I32)</f>
+        <v>5743.92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="150" t="str">
+        <f>[1]!usd(I34,TRUE)</f>
+        <v>Five thousand, seven hundred forty three dollars and ninety two cents</v>
+      </c>
+      <c r="B35" s="150"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="69"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="156" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="157"/>
+      <c r="G36" s="156" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="158"/>
+      <c r="I36" s="121" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="21" customHeight="1">
+      <c r="A37" s="107"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="152"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="108"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" customHeight="1">
+      <c r="A38" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="110"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="51">
+        <v>32224</v>
+      </c>
+      <c r="F38" s="111"/>
+      <c r="G38" s="153">
+        <v>0.15</v>
+      </c>
+      <c r="H38" s="153"/>
+      <c r="I38" s="112">
+        <f>+E38*G38</f>
+        <v>4833.5999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18" customHeight="1">
+      <c r="A39" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="114"/>
+    </row>
+    <row r="40" spans="1:9" ht="18" customHeight="1">
+      <c r="A40" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="110"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="51">
+        <v>14700</v>
+      </c>
+      <c r="F40" s="111"/>
+      <c r="G40" s="153">
+        <v>0.3</v>
+      </c>
+      <c r="H40" s="153"/>
+      <c r="I40" s="112">
+        <f>+E40*G40</f>
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18" customHeight="1">
+      <c r="A41" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="110"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="114"/>
+    </row>
+    <row r="42" spans="1:9" ht="18" customHeight="1">
+      <c r="A42" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="51">
+        <v>57570</v>
+      </c>
+      <c r="F42" s="111"/>
+      <c r="G42" s="153">
+        <v>0.15</v>
+      </c>
+      <c r="H42" s="153"/>
+      <c r="I42" s="112">
+        <f>+E42*G42</f>
+        <v>8635.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18" customHeight="1">
+      <c r="A43" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="110"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="114"/>
+    </row>
+    <row r="44" spans="1:9" ht="18" customHeight="1">
+      <c r="A44" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="110"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="51">
+        <v>14700</v>
+      </c>
+      <c r="F44" s="111"/>
+      <c r="G44" s="153">
+        <v>0.3</v>
+      </c>
+      <c r="H44" s="153"/>
+      <c r="I44" s="112">
+        <f>+E44*G44</f>
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18" customHeight="1">
+      <c r="A45" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="110"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="114"/>
+    </row>
+    <row r="46" spans="1:9" ht="18" customHeight="1">
+      <c r="A46" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="110"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="51">
+        <v>14700</v>
+      </c>
+      <c r="F46" s="111"/>
+      <c r="G46" s="153">
+        <v>0.3</v>
+      </c>
+      <c r="H46" s="153"/>
+      <c r="I46" s="112">
+        <f>+E46*G46</f>
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18" customHeight="1">
+      <c r="A47" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="110"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="114"/>
+    </row>
+    <row r="48" spans="1:9" ht="18" customHeight="1">
+      <c r="A48" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="110"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="51">
+        <v>57570</v>
+      </c>
+      <c r="F48" s="111"/>
+      <c r="G48" s="153">
+        <v>0.15</v>
+      </c>
+      <c r="H48" s="153"/>
+      <c r="I48" s="112">
+        <f>+E48*G48</f>
+        <v>8635.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18" customHeight="1">
+      <c r="A49" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="110"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="114"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="115"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="154" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="154"/>
+      <c r="E50" s="116">
+        <f>SUM(E37:E48)</f>
+        <v>191464</v>
+      </c>
+      <c r="F50" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="155"/>
+      <c r="H50" s="155"/>
+      <c r="I50" s="118">
+        <f>SUM(I37:I48)</f>
+        <v>35334.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="150" t="str">
+        <f>[1]!usd(I50,TRUE)</f>
+        <v>Thirty five thousand, three hundred thirty four dollars and sixty cents</v>
+      </c>
+      <c r="B51" s="150"/>
+      <c r="C51" s="150"/>
+      <c r="D51" s="150"/>
+      <c r="E51" s="150"/>
+      <c r="F51" s="150"/>
+      <c r="G51" s="150"/>
+      <c r="H51" s="150"/>
+      <c r="I51" s="150"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5">
+      <c r="A52" s="75"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.5">
+      <c r="A53" s="75"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="151" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" s="151"/>
+      <c r="I53" s="151"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.5">
+      <c r="A54" s="75"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
@@ -4153,816 +5887,952 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:I33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="91"/>
-    <col min="4" max="4" width="20" style="91" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="91" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="91"/>
-    <col min="9" max="9" width="16.28515625" style="91" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="91"/>
+    <col min="1" max="3" width="9.140625" style="63"/>
+    <col min="4" max="4" width="20" style="63" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="63"/>
+    <col min="9" max="9" width="16.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
     </row>
     <row r="3" spans="1:9" ht="4.5" customHeight="1" thickBot="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickTop="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="94" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:9" ht="4.5" customHeight="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="99" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:9" ht="16.5">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="102" t="s">
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="105" t="s">
+      <c r="F7" s="74"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="106">
+      <c r="I7" s="77">
         <v>43929</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="99" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="95" t="s">
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95" t="s">
+      <c r="F10" s="66"/>
+      <c r="G10" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A11" s="114"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="117" t="s">
+      <c r="A11" s="171"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="110"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="78"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="110"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="78"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="110"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="78"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="110"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="78"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="127" t="s">
+      <c r="A16" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="128"/>
-      <c r="C16" s="129" t="s">
+      <c r="B16" s="90"/>
+      <c r="C16" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="130"/>
-      <c r="E16" s="93" t="s">
+      <c r="D16" s="92"/>
+      <c r="E16" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93" t="s">
+      <c r="F16" s="65"/>
+      <c r="G16" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="132"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:14" ht="16.5">
-      <c r="A18" s="135" t="s">
+      <c r="A18" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="136"/>
-      <c r="C18" s="137" t="s">
+      <c r="B18" s="98"/>
+      <c r="C18" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="130"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="39" t="str">
         <f>+C17</f>
         <v>HOUSTON - TX</v>
       </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="139">
+      <c r="B19" s="100"/>
+      <c r="C19" s="159">
         <v>44058</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="142" t="s">
+      <c r="A20" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146" t="s">
+      <c r="B20" s="103"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="147"/>
-      <c r="G20" s="146" t="s">
+      <c r="F20" s="162"/>
+      <c r="G20" s="161" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="148"/>
-      <c r="I20" s="149" t="s">
+      <c r="H20" s="163"/>
+      <c r="I20" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="91" t="s">
+      <c r="N20" s="63" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="150"/>
-      <c r="B21" s="150"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="151" t="s">
+      <c r="A21" s="107"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="108"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1">
-      <c r="A22" s="153" t="s">
+      <c r="A22" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="154"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="154"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
       <c r="E22" s="51">
         <v>32224</v>
       </c>
-      <c r="F22" s="155"/>
-      <c r="G22" s="156">
+      <c r="F22" s="111"/>
+      <c r="G22" s="153">
         <v>0.03</v>
       </c>
-      <c r="H22" s="156"/>
-      <c r="I22" s="157">
+      <c r="H22" s="153"/>
+      <c r="I22" s="112">
         <f>+E22*G22</f>
         <v>966.71999999999991</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1">
-      <c r="A23" s="150" t="s">
+      <c r="A23" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="154"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="159"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="114"/>
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1">
-      <c r="A24" s="153" t="s">
+      <c r="A24" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="154"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="154"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
       <c r="E24" s="51">
         <v>14700</v>
       </c>
-      <c r="F24" s="155"/>
-      <c r="G24" s="156">
+      <c r="F24" s="111"/>
+      <c r="G24" s="153">
         <v>0.03</v>
       </c>
-      <c r="H24" s="156"/>
-      <c r="I24" s="157">
+      <c r="H24" s="153"/>
+      <c r="I24" s="112">
         <f>+E24*G24</f>
         <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1">
-      <c r="A25" s="150" t="s">
+      <c r="A25" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="154"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="159"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="114"/>
     </row>
     <row r="26" spans="1:14" ht="18" customHeight="1">
-      <c r="A26" s="153" t="s">
+      <c r="A26" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
       <c r="E26" s="51">
         <v>57570</v>
       </c>
-      <c r="F26" s="155"/>
-      <c r="G26" s="156">
+      <c r="F26" s="111"/>
+      <c r="G26" s="153">
         <v>0.03</v>
       </c>
-      <c r="H26" s="156"/>
-      <c r="I26" s="157">
+      <c r="H26" s="153"/>
+      <c r="I26" s="112">
         <f>+E26*G26</f>
         <v>1727.1</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1">
-      <c r="A27" s="150" t="s">
+      <c r="A27" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="154"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="159"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="114"/>
     </row>
     <row r="28" spans="1:14" ht="18" customHeight="1">
-      <c r="A28" s="153" t="s">
+      <c r="A28" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="154"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
       <c r="E28" s="51">
         <v>14700</v>
       </c>
-      <c r="F28" s="155"/>
-      <c r="G28" s="156">
+      <c r="F28" s="111"/>
+      <c r="G28" s="153">
         <v>0.03</v>
       </c>
-      <c r="H28" s="156"/>
-      <c r="I28" s="157">
+      <c r="H28" s="153"/>
+      <c r="I28" s="112">
         <f>+E28*G28</f>
         <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="18" customHeight="1">
-      <c r="A29" s="150" t="s">
+      <c r="A29" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="159"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="114"/>
     </row>
     <row r="30" spans="1:14" ht="18" customHeight="1">
-      <c r="A30" s="153" t="s">
+      <c r="A30" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
       <c r="E30" s="51">
         <v>57570</v>
       </c>
-      <c r="F30" s="155"/>
-      <c r="G30" s="156">
+      <c r="F30" s="111"/>
+      <c r="G30" s="153">
         <v>0.03</v>
       </c>
-      <c r="H30" s="156"/>
-      <c r="I30" s="157">
+      <c r="H30" s="153"/>
+      <c r="I30" s="112">
         <f>+E30*G30</f>
         <v>1727.1</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="18" customHeight="1">
-      <c r="A31" s="150" t="s">
+      <c r="A31" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="110"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="114"/>
+    </row>
+    <row r="32" spans="1:14" ht="18" customHeight="1">
+      <c r="A32" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="51">
+        <v>14700</v>
+      </c>
+      <c r="F32" s="111"/>
+      <c r="G32" s="153">
+        <v>0.03</v>
+      </c>
+      <c r="H32" s="153"/>
+      <c r="I32" s="112">
+        <f>+E32*G32</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18" customHeight="1">
+      <c r="A33" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="154"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="159"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="160"/>
-      <c r="B32" s="160"/>
-      <c r="C32" s="161" t="s">
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="114"/>
+    </row>
+    <row r="34" spans="1:9" ht="18" customHeight="1">
+      <c r="A34" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="51">
+        <v>57570</v>
+      </c>
+      <c r="F34" s="111"/>
+      <c r="G34" s="153">
+        <v>0.03</v>
+      </c>
+      <c r="H34" s="153"/>
+      <c r="I34" s="112">
+        <f>+E34*G34</f>
+        <v>1727.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18" customHeight="1">
+      <c r="A35" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="114"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="115"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="161"/>
-      <c r="E32" s="162">
-        <f>SUM(E22:E30)</f>
-        <v>176764</v>
-      </c>
-      <c r="F32" s="163" t="s">
+      <c r="D36" s="154"/>
+      <c r="E36" s="116">
+        <f>SUM(E22:E34)</f>
+        <v>249034</v>
+      </c>
+      <c r="F36" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="164"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="165">
-        <f>SUM(I22:I30)</f>
-        <v>5302.92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="166" t="str">
-        <f>[1]!usd(I32,TRUE)</f>
-        <v>Five thousand, three hundred two dollars and ninety two cents</v>
-      </c>
-      <c r="B33" s="166"/>
-      <c r="C33" s="166"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="166"/>
-      <c r="H33" s="166"/>
-      <c r="I33" s="166"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="142" t="s">
+      <c r="G36" s="155"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="118">
+        <f>SUM(I22:I34)</f>
+        <v>7471.02</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="150" t="str">
+        <f>[1]!usd(I36,TRUE)</f>
+        <v>Seven thousand, four hundred seventy one dollars and two cents</v>
+      </c>
+      <c r="B37" s="150"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="169" t="s">
+      <c r="B38" s="69"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="170"/>
-      <c r="G34" s="169" t="s">
+      <c r="F38" s="157"/>
+      <c r="G38" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="171"/>
-      <c r="I34" s="172" t="s">
+      <c r="H38" s="158"/>
+      <c r="I38" s="121" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="21" customHeight="1">
-      <c r="A35" s="150"/>
-      <c r="B35" s="150"/>
-      <c r="C35" s="150"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="151" t="s">
+    <row r="39" spans="1:9" ht="21" customHeight="1">
+      <c r="A39" s="107"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="152"/>
-    </row>
-    <row r="36" spans="1:9" ht="18" customHeight="1">
-      <c r="A36" s="153" t="s">
+      <c r="F39" s="152"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="108"/>
+    </row>
+    <row r="40" spans="1:9" ht="18" customHeight="1">
+      <c r="A40" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="154"/>
-      <c r="C36" s="154"/>
-      <c r="D36" s="154"/>
-      <c r="E36" s="51">
+      <c r="B40" s="110"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="51">
         <v>32224</v>
       </c>
-      <c r="F36" s="155"/>
-      <c r="G36" s="156">
+      <c r="F40" s="111"/>
+      <c r="G40" s="153">
         <v>0.15</v>
       </c>
-      <c r="H36" s="156"/>
-      <c r="I36" s="157">
-        <f>+E36*G36</f>
+      <c r="H40" s="153"/>
+      <c r="I40" s="112">
+        <f>+E40*G40</f>
         <v>4833.5999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18" customHeight="1">
-      <c r="A37" s="150" t="s">
+    <row r="41" spans="1:9" ht="18" customHeight="1">
+      <c r="A41" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="154"/>
-      <c r="C37" s="154"/>
-      <c r="D37" s="154"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="159"/>
-    </row>
-    <row r="38" spans="1:9" ht="18" customHeight="1">
-      <c r="A38" s="153" t="s">
+      <c r="B41" s="110"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="114"/>
+    </row>
+    <row r="42" spans="1:9" ht="18" customHeight="1">
+      <c r="A42" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="154"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="51">
-        <v>14700</v>
-      </c>
-      <c r="F38" s="155"/>
-      <c r="G38" s="156">
-        <v>0.3</v>
-      </c>
-      <c r="H38" s="156"/>
-      <c r="I38" s="157">
-        <f>+E38*G38</f>
-        <v>4410</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="18" customHeight="1">
-      <c r="A39" s="150" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="154"/>
-      <c r="C39" s="154"/>
-      <c r="D39" s="154"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="159"/>
-    </row>
-    <row r="40" spans="1:9" ht="18" customHeight="1">
-      <c r="A40" s="153" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="154"/>
-      <c r="C40" s="154"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="51">
-        <v>57570</v>
-      </c>
-      <c r="F40" s="155"/>
-      <c r="G40" s="156">
-        <v>0.15</v>
-      </c>
-      <c r="H40" s="156"/>
-      <c r="I40" s="157">
-        <f>+E40*G40</f>
-        <v>8635.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="18" customHeight="1">
-      <c r="A41" s="150" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="154"/>
-      <c r="C41" s="154"/>
-      <c r="D41" s="154"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="159"/>
-    </row>
-    <row r="42" spans="1:9" ht="18" customHeight="1">
-      <c r="A42" s="153" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="154"/>
-      <c r="C42" s="154"/>
-      <c r="D42" s="154"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
       <c r="E42" s="51">
         <v>14700</v>
       </c>
-      <c r="F42" s="155"/>
-      <c r="G42" s="156">
+      <c r="F42" s="111"/>
+      <c r="G42" s="153">
         <v>0.3</v>
       </c>
-      <c r="H42" s="156"/>
-      <c r="I42" s="157">
+      <c r="H42" s="153"/>
+      <c r="I42" s="112">
         <f>+E42*G42</f>
         <v>4410</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18" customHeight="1">
-      <c r="A43" s="150" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="154"/>
-      <c r="C43" s="154"/>
-      <c r="D43" s="154"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="159"/>
+      <c r="A43" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="110"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="114"/>
     </row>
     <row r="44" spans="1:9" ht="18" customHeight="1">
-      <c r="A44" s="153" t="s">
+      <c r="A44" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="154"/>
-      <c r="C44" s="154"/>
-      <c r="D44" s="154"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
       <c r="E44" s="51">
         <v>57570</v>
       </c>
-      <c r="F44" s="155"/>
-      <c r="G44" s="156">
+      <c r="F44" s="111"/>
+      <c r="G44" s="153">
         <v>0.15</v>
       </c>
-      <c r="H44" s="156"/>
-      <c r="I44" s="157">
+      <c r="H44" s="153"/>
+      <c r="I44" s="112">
         <f>+E44*G44</f>
         <v>8635.5</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" customHeight="1">
-      <c r="A45" s="150" t="s">
+      <c r="A45" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="110"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="114"/>
+    </row>
+    <row r="46" spans="1:9" ht="18" customHeight="1">
+      <c r="A46" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="110"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="51">
+        <v>14700</v>
+      </c>
+      <c r="F46" s="111"/>
+      <c r="G46" s="153">
+        <v>0.3</v>
+      </c>
+      <c r="H46" s="153"/>
+      <c r="I46" s="112">
+        <f>+E46*G46</f>
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18" customHeight="1">
+      <c r="A47" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="154"/>
-      <c r="C45" s="154"/>
-      <c r="D45" s="154"/>
-      <c r="E45" s="158"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="159"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="160"/>
-      <c r="B46" s="160"/>
-      <c r="C46" s="161" t="s">
+      <c r="B47" s="110"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="114"/>
+    </row>
+    <row r="48" spans="1:9" ht="18" customHeight="1">
+      <c r="A48" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="110"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="51">
+        <v>57570</v>
+      </c>
+      <c r="F48" s="111"/>
+      <c r="G48" s="153">
+        <v>0.15</v>
+      </c>
+      <c r="H48" s="153"/>
+      <c r="I48" s="112">
+        <f>+E48*G48</f>
+        <v>8635.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18" customHeight="1">
+      <c r="A49" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="110"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="114"/>
+    </row>
+    <row r="50" spans="1:9" ht="18" customHeight="1">
+      <c r="A50" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="110"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="51">
+        <v>14700</v>
+      </c>
+      <c r="F50" s="111"/>
+      <c r="G50" s="153">
+        <v>0.3</v>
+      </c>
+      <c r="H50" s="153"/>
+      <c r="I50" s="112">
+        <f>+E50*G50</f>
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="18" customHeight="1">
+      <c r="A51" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="110"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="114"/>
+    </row>
+    <row r="52" spans="1:9" ht="18" customHeight="1">
+      <c r="A52" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="110"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="51">
+        <v>57570</v>
+      </c>
+      <c r="F52" s="111"/>
+      <c r="G52" s="153">
+        <v>0.15</v>
+      </c>
+      <c r="H52" s="153"/>
+      <c r="I52" s="112">
+        <f>+E52*G52</f>
+        <v>8635.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="18" customHeight="1">
+      <c r="A53" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="110"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="114"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="115"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="161"/>
-      <c r="E46" s="162">
-        <f>SUM(E35:E44)</f>
-        <v>176764</v>
-      </c>
-      <c r="F46" s="163" t="s">
+      <c r="D54" s="154"/>
+      <c r="E54" s="116">
+        <f>SUM(E39:E52)</f>
+        <v>249034</v>
+      </c>
+      <c r="F54" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="164"/>
-      <c r="H46" s="164"/>
-      <c r="I46" s="165">
-        <f>SUM(I35:I44)</f>
-        <v>30924.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="166" t="str">
-        <f>[1]!usd(I46,TRUE)</f>
-        <v>Thirty thousand, nine hundred twenty four dollars and sixty cents</v>
-      </c>
-      <c r="B47" s="166"/>
-      <c r="C47" s="166"/>
-      <c r="D47" s="166"/>
-      <c r="E47" s="166"/>
-      <c r="F47" s="166"/>
-      <c r="G47" s="166"/>
-      <c r="H47" s="166"/>
-      <c r="I47" s="166"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.5">
-      <c r="A48" s="104"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="104"/>
-    </row>
-    <row r="49" spans="1:9" ht="16.5">
-      <c r="A49" s="104"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="173" t="s">
+      <c r="G54" s="155"/>
+      <c r="H54" s="155"/>
+      <c r="I54" s="118">
+        <f>SUM(I39:I52)</f>
+        <v>43970.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="150" t="str">
+        <f>[1]!usd(I54,TRUE)</f>
+        <v>Forty three thousand, nine hundred seventy dollars and ten cents</v>
+      </c>
+      <c r="B55" s="150"/>
+      <c r="C55" s="150"/>
+      <c r="D55" s="150"/>
+      <c r="E55" s="150"/>
+      <c r="F55" s="150"/>
+      <c r="G55" s="150"/>
+      <c r="H55" s="150"/>
+      <c r="I55" s="150"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5">
+      <c r="A56" s="75"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="75"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5">
+      <c r="A57" s="75"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="173"/>
-      <c r="I49" s="173"/>
-    </row>
-    <row r="50" spans="1:9" ht="16.5">
-      <c r="A50" s="104"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="104"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="104"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="104"/>
+      <c r="H57" s="151"/>
+      <c r="I57" s="151"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5">
+      <c r="A58" s="75"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G40:H40"/>
+  <mergeCells count="34">
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G46:H46"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C32:D32"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A37:I37"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
